--- a/natmiOut/OldD7/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Agrp</t>
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.625162325400468</v>
+        <v>0.346337</v>
       </c>
       <c r="H2">
-        <v>0.625162325400468</v>
+        <v>1.039011</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2589001916688345</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2589001916688345</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N2">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q2">
-        <v>20.97188485662296</v>
+        <v>11.90041234900166</v>
       </c>
       <c r="R2">
-        <v>20.97188485662296</v>
+        <v>107.103711141015</v>
       </c>
       <c r="S2">
-        <v>0.3112804277707056</v>
+        <v>0.07376136425579428</v>
       </c>
       <c r="T2">
-        <v>0.3112804277707056</v>
+        <v>0.07376136425579427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.625162325400468</v>
+        <v>0.346337</v>
       </c>
       <c r="H3">
-        <v>0.625162325400468</v>
+        <v>1.039011</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2589001916688345</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2589001916688345</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N3">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P3">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q3">
-        <v>13.23347488540937</v>
+        <v>7.461697556146333</v>
       </c>
       <c r="R3">
-        <v>13.23347488540937</v>
+        <v>67.155278005317</v>
       </c>
       <c r="S3">
-        <v>0.1964211491425497</v>
+        <v>0.04624923702342566</v>
       </c>
       <c r="T3">
-        <v>0.1964211491425497</v>
+        <v>0.04624923702342565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.625162325400468</v>
+        <v>0.346337</v>
       </c>
       <c r="H4">
-        <v>0.625162325400468</v>
+        <v>1.039011</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2589001916688345</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2589001916688345</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N4">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q4">
-        <v>30.64552780374992</v>
+        <v>20.79109105664733</v>
       </c>
       <c r="R4">
-        <v>30.64552780374992</v>
+        <v>187.119819509826</v>
       </c>
       <c r="S4">
-        <v>0.4548638841585946</v>
+        <v>0.1288677396824324</v>
       </c>
       <c r="T4">
-        <v>0.4548638841585946</v>
+        <v>0.1288677396824324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.346337</v>
+      </c>
+      <c r="H5">
+        <v>1.039011</v>
+      </c>
+      <c r="I5">
+        <v>0.2589001916688345</v>
+      </c>
+      <c r="J5">
+        <v>0.2589001916688345</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.668551</v>
+      </c>
+      <c r="N5">
+        <v>14.005653</v>
+      </c>
+      <c r="O5">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="P5">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="Q5">
+        <v>1.616891947687</v>
+      </c>
+      <c r="R5">
+        <v>14.552027529183</v>
+      </c>
+      <c r="S5">
+        <v>0.01002185070718214</v>
+      </c>
+      <c r="T5">
+        <v>0.01002185070718214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7091626666666667</v>
+      </c>
+      <c r="H6">
+        <v>2.127488</v>
+      </c>
+      <c r="I6">
+        <v>0.5301262941134843</v>
+      </c>
+      <c r="J6">
+        <v>0.5301262941134843</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>34.36078833333333</v>
+      </c>
+      <c r="N6">
+        <v>103.082365</v>
+      </c>
+      <c r="O6">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="P6">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="Q6">
+        <v>24.36738828323556</v>
+      </c>
+      <c r="R6">
+        <v>219.30649454912</v>
+      </c>
+      <c r="S6">
+        <v>0.151034413801039</v>
+      </c>
+      <c r="T6">
+        <v>0.151034413801039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7091626666666667</v>
+      </c>
+      <c r="H7">
+        <v>2.127488</v>
+      </c>
+      <c r="I7">
+        <v>0.5301262941134843</v>
+      </c>
+      <c r="J7">
+        <v>0.5301262941134843</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>21.54461566666667</v>
+      </c>
+      <c r="N7">
+        <v>64.633847</v>
+      </c>
+      <c r="O7">
+        <v>0.17863732245739</v>
+      </c>
+      <c r="P7">
+        <v>0.1786373224573899</v>
+      </c>
+      <c r="Q7">
+        <v>15.27863709848178</v>
+      </c>
+      <c r="R7">
+        <v>137.507733886336</v>
+      </c>
+      <c r="S7">
+        <v>0.09470034174469168</v>
+      </c>
+      <c r="T7">
+        <v>0.09470034174469165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7091626666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.127488</v>
+      </c>
+      <c r="I8">
+        <v>0.5301262941134843</v>
+      </c>
+      <c r="J8">
+        <v>0.5301262941134843</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>60.03138866666666</v>
+      </c>
+      <c r="N8">
+        <v>180.094166</v>
+      </c>
+      <c r="O8">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="P8">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="Q8">
+        <v>42.57201967055644</v>
+      </c>
+      <c r="R8">
+        <v>383.148177035008</v>
+      </c>
+      <c r="S8">
+        <v>0.2638707095126989</v>
+      </c>
+      <c r="T8">
+        <v>0.2638707095126989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.625162325400468</v>
-      </c>
-      <c r="H5">
-        <v>0.625162325400468</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.03427352759727</v>
-      </c>
-      <c r="N5">
-        <v>4.03427352759727</v>
-      </c>
-      <c r="O5">
-        <v>0.03743453892815018</v>
-      </c>
-      <c r="P5">
-        <v>0.03743453892815018</v>
-      </c>
-      <c r="Q5">
-        <v>2.522075819814258</v>
-      </c>
-      <c r="R5">
-        <v>2.522075819814258</v>
-      </c>
-      <c r="S5">
-        <v>0.03743453892815018</v>
-      </c>
-      <c r="T5">
-        <v>0.03743453892815018</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7091626666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.127488</v>
+      </c>
+      <c r="I9">
+        <v>0.5301262941134843</v>
+      </c>
+      <c r="J9">
+        <v>0.5301262941134843</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.668551</v>
+      </c>
+      <c r="N9">
+        <v>14.005653</v>
+      </c>
+      <c r="O9">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="P9">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="Q9">
+        <v>3.310762076629334</v>
+      </c>
+      <c r="R9">
+        <v>29.796858689664</v>
+      </c>
+      <c r="S9">
+        <v>0.02052082905505479</v>
+      </c>
+      <c r="T9">
+        <v>0.02052082905505479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.225858</v>
+      </c>
+      <c r="H10">
+        <v>0.677574</v>
+      </c>
+      <c r="I10">
+        <v>0.1688375180530513</v>
+      </c>
+      <c r="J10">
+        <v>0.1688375180530513</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>34.36078833333333</v>
+      </c>
+      <c r="N10">
+        <v>103.082365</v>
+      </c>
+      <c r="O10">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="P10">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="Q10">
+        <v>7.76065893139</v>
+      </c>
+      <c r="R10">
+        <v>69.84593038251001</v>
+      </c>
+      <c r="S10">
+        <v>0.04810226515817019</v>
+      </c>
+      <c r="T10">
+        <v>0.04810226515817018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.225858</v>
+      </c>
+      <c r="H11">
+        <v>0.677574</v>
+      </c>
+      <c r="I11">
+        <v>0.1688375180530513</v>
+      </c>
+      <c r="J11">
+        <v>0.1688375180530513</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.54461566666667</v>
+      </c>
+      <c r="N11">
+        <v>64.633847</v>
+      </c>
+      <c r="O11">
+        <v>0.17863732245739</v>
+      </c>
+      <c r="P11">
+        <v>0.1786373224573899</v>
+      </c>
+      <c r="Q11">
+        <v>4.866023805242</v>
+      </c>
+      <c r="R11">
+        <v>43.794214247178</v>
+      </c>
+      <c r="S11">
+        <v>0.03016068215534833</v>
+      </c>
+      <c r="T11">
+        <v>0.03016068215534832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.225858</v>
+      </c>
+      <c r="H12">
+        <v>0.677574</v>
+      </c>
+      <c r="I12">
+        <v>0.1688375180530513</v>
+      </c>
+      <c r="J12">
+        <v>0.1688375180530513</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>60.03138866666666</v>
+      </c>
+      <c r="N12">
+        <v>180.094166</v>
+      </c>
+      <c r="O12">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="P12">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="Q12">
+        <v>13.558569381476</v>
+      </c>
+      <c r="R12">
+        <v>122.027124433284</v>
+      </c>
+      <c r="S12">
+        <v>0.08403898500360869</v>
+      </c>
+      <c r="T12">
+        <v>0.08403898500360869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.225858</v>
+      </c>
+      <c r="H13">
+        <v>0.677574</v>
+      </c>
+      <c r="I13">
+        <v>0.1688375180530513</v>
+      </c>
+      <c r="J13">
+        <v>0.1688375180530513</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.668551</v>
+      </c>
+      <c r="N13">
+        <v>14.005653</v>
+      </c>
+      <c r="O13">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="P13">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="Q13">
+        <v>1.054429591758</v>
+      </c>
+      <c r="R13">
+        <v>9.489866325822</v>
+      </c>
+      <c r="S13">
+        <v>0.006535585735924101</v>
+      </c>
+      <c r="T13">
+        <v>0.006535585735924101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.169099</v>
+      </c>
+      <c r="I14">
+        <v>0.04213599616462987</v>
+      </c>
+      <c r="J14">
+        <v>0.04213599616462987</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>34.36078833333333</v>
+      </c>
+      <c r="N14">
+        <v>103.082365</v>
+      </c>
+      <c r="O14">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="P14">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="Q14">
+        <v>1.936791648792778</v>
+      </c>
+      <c r="R14">
+        <v>17.431124839135</v>
+      </c>
+      <c r="S14">
+        <v>0.01200465917520658</v>
+      </c>
+      <c r="T14">
+        <v>0.01200465917520657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.169099</v>
+      </c>
+      <c r="I15">
+        <v>0.04213599616462987</v>
+      </c>
+      <c r="J15">
+        <v>0.04213599616462987</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.54461566666667</v>
+      </c>
+      <c r="N15">
+        <v>64.633847</v>
+      </c>
+      <c r="O15">
+        <v>0.17863732245739</v>
+      </c>
+      <c r="P15">
+        <v>0.1786373224573899</v>
+      </c>
+      <c r="Q15">
+        <v>1.214390988205889</v>
+      </c>
+      <c r="R15">
+        <v>10.929518893853</v>
+      </c>
+      <c r="S15">
+        <v>0.007527061533924335</v>
+      </c>
+      <c r="T15">
+        <v>0.007527061533924333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.169099</v>
+      </c>
+      <c r="I16">
+        <v>0.04213599616462987</v>
+      </c>
+      <c r="J16">
+        <v>0.04213599616462987</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>60.03138866666666</v>
+      </c>
+      <c r="N16">
+        <v>180.094166</v>
+      </c>
+      <c r="O16">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="P16">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="Q16">
+        <v>3.383749264048222</v>
+      </c>
+      <c r="R16">
+        <v>30.453743376434</v>
+      </c>
+      <c r="S16">
+        <v>0.02097321964113916</v>
+      </c>
+      <c r="T16">
+        <v>0.02097321964113916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05636633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.169099</v>
+      </c>
+      <c r="I17">
+        <v>0.04213599616462987</v>
+      </c>
+      <c r="J17">
+        <v>0.04213599616462987</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.668551</v>
+      </c>
+      <c r="N17">
+        <v>14.005653</v>
+      </c>
+      <c r="O17">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="P17">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="Q17">
+        <v>0.2631491018496667</v>
+      </c>
+      <c r="R17">
+        <v>2.368341916647</v>
+      </c>
+      <c r="S17">
+        <v>0.001631055814359804</v>
+      </c>
+      <c r="T17">
+        <v>0.001631055814359804</v>
       </c>
     </row>
   </sheetData>
